--- a/teaching/traditional_assets/database/data/netherlands/netherlands_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_insurance_general.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.00693</v>
+        <v>-0.0446</v>
       </c>
       <c r="E2">
-        <v>0.193</v>
+        <v>0.00488</v>
       </c>
       <c r="F2">
-        <v>0.0344</v>
+        <v>0.04650000000000001</v>
       </c>
       <c r="G2">
-        <v>0.1423651420168718</v>
+        <v>0.2066281227885116</v>
       </c>
       <c r="H2">
-        <v>0.1423651420168718</v>
+        <v>0.2066281227885116</v>
       </c>
       <c r="I2">
-        <v>0.1686348837640822</v>
+        <v>0.1567836780473476</v>
       </c>
       <c r="J2">
-        <v>0.1343865913001633</v>
+        <v>0.1234121871037787</v>
       </c>
       <c r="K2">
-        <v>941.1</v>
+        <v>748.4</v>
       </c>
       <c r="L2">
-        <v>0.1213915331630679</v>
+        <v>0.09992923237151669</v>
       </c>
       <c r="M2">
-        <v>278.8</v>
+        <v>411.9</v>
       </c>
       <c r="N2">
-        <v>0.05281703481983859</v>
+        <v>0.07403745910773989</v>
       </c>
       <c r="O2">
-        <v>0.2962490702369567</v>
+        <v>0.5503741314804917</v>
       </c>
       <c r="P2">
-        <v>278.8</v>
+        <v>110.3</v>
       </c>
       <c r="Q2">
-        <v>0.05281703481983859</v>
+        <v>0.01982600567997987</v>
       </c>
       <c r="R2">
-        <v>0.2962490702369567</v>
+        <v>0.147381079636558</v>
       </c>
       <c r="S2">
+        <v>301.6</v>
+      </c>
+      <c r="T2">
+        <v>0.7322165574168488</v>
+      </c>
+      <c r="U2">
+        <v>3178</v>
+      </c>
+      <c r="V2">
+        <v>0.5712334184132006</v>
+      </c>
+      <c r="W2">
+        <v>0.1132001270551934</v>
+      </c>
+      <c r="X2">
+        <v>0.08969388115417745</v>
+      </c>
+      <c r="Y2">
+        <v>0.02350624590101592</v>
+      </c>
+      <c r="Z2">
+        <v>0.5590865657380035</v>
+      </c>
+      <c r="AA2">
+        <v>0.06899809585806754</v>
+      </c>
+      <c r="AB2">
+        <v>0.0386671582247967</v>
+      </c>
+      <c r="AC2">
+        <v>0.03033093763327084</v>
+      </c>
+      <c r="AD2">
+        <v>11698.2</v>
+      </c>
+      <c r="AE2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>1035.5</v>
-      </c>
-      <c r="V2">
-        <v>0.1961694388663661</v>
-      </c>
-      <c r="W2">
-        <v>0.146817472698908</v>
-      </c>
-      <c r="X2">
-        <v>0.07805697259176281</v>
-      </c>
-      <c r="Y2">
-        <v>0.06876050010714516</v>
-      </c>
-      <c r="Z2">
-        <v>0.9774189814097827</v>
-      </c>
-      <c r="AA2">
-        <v>0.1313520051837384</v>
-      </c>
-      <c r="AB2">
-        <v>0.04405213690665782</v>
-      </c>
-      <c r="AC2">
-        <v>0.08729986827708056</v>
-      </c>
-      <c r="AD2">
-        <v>7819.8</v>
-      </c>
-      <c r="AE2">
-        <v>17.80600065288226</v>
-      </c>
       <c r="AF2">
-        <v>7837.606000652882</v>
+        <v>11698.2</v>
       </c>
       <c r="AG2">
-        <v>6802.106000652882</v>
+        <v>8520.200000000001</v>
       </c>
       <c r="AH2">
-        <v>0.5975513041090351</v>
+        <v>0.6777007925105437</v>
       </c>
       <c r="AI2">
-        <v>0.5424359463822891</v>
+        <v>0.6223075736377613</v>
       </c>
       <c r="AJ2">
-        <v>0.563055338014622</v>
+        <v>0.6049731602715215</v>
       </c>
       <c r="AK2">
-        <v>0.5071125111937861</v>
+        <v>0.5454638574657013</v>
       </c>
       <c r="AL2">
-        <v>246.9</v>
+        <v>323</v>
       </c>
       <c r="AM2">
-        <v>246.9</v>
+        <v>323</v>
       </c>
       <c r="AN2">
-        <v>5.863589328294417</v>
+        <v>9.738761238761239</v>
       </c>
       <c r="AO2">
-        <v>5.286350749291211</v>
+        <v>3.635294117647059</v>
       </c>
       <c r="AP2">
-        <v>5.100482896666878</v>
+        <v>7.093073593073593</v>
       </c>
       <c r="AQ2">
-        <v>5.286350749291211</v>
+        <v>3.635294117647059</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.00693</v>
+        <v>-0.0446</v>
       </c>
       <c r="E3">
-        <v>0.193</v>
+        <v>0.00488</v>
       </c>
       <c r="F3">
-        <v>0.0344</v>
+        <v>0.04650000000000001</v>
       </c>
       <c r="G3">
-        <v>0.1423651420168718</v>
+        <v>0.2066281227885116</v>
       </c>
       <c r="H3">
-        <v>0.1423651420168718</v>
+        <v>0.2066281227885116</v>
       </c>
       <c r="I3">
-        <v>0.1686348837640822</v>
+        <v>0.1567836780473476</v>
       </c>
       <c r="J3">
-        <v>0.1343865913001633</v>
+        <v>0.1234121871037787</v>
       </c>
       <c r="K3">
-        <v>941.1</v>
+        <v>748.4</v>
       </c>
       <c r="L3">
-        <v>0.1213915331630679</v>
+        <v>0.09992923237151669</v>
       </c>
       <c r="M3">
-        <v>278.8</v>
+        <v>411.9</v>
       </c>
       <c r="N3">
-        <v>0.05281703481983859</v>
+        <v>0.07403745910773989</v>
       </c>
       <c r="O3">
-        <v>0.2962490702369567</v>
+        <v>0.5503741314804917</v>
       </c>
       <c r="P3">
-        <v>278.8</v>
+        <v>110.3</v>
       </c>
       <c r="Q3">
-        <v>0.05281703481983859</v>
+        <v>0.01982600567997987</v>
       </c>
       <c r="R3">
-        <v>0.2962490702369567</v>
+        <v>0.147381079636558</v>
       </c>
       <c r="S3">
+        <v>301.6</v>
+      </c>
+      <c r="T3">
+        <v>0.7322165574168488</v>
+      </c>
+      <c r="U3">
+        <v>3178</v>
+      </c>
+      <c r="V3">
+        <v>0.5712334184132006</v>
+      </c>
+      <c r="W3">
+        <v>0.1132001270551934</v>
+      </c>
+      <c r="X3">
+        <v>0.08969388115417745</v>
+      </c>
+      <c r="Y3">
+        <v>0.02350624590101592</v>
+      </c>
+      <c r="Z3">
+        <v>0.5590865657380035</v>
+      </c>
+      <c r="AA3">
+        <v>0.06899809585806754</v>
+      </c>
+      <c r="AB3">
+        <v>0.0386671582247967</v>
+      </c>
+      <c r="AC3">
+        <v>0.03033093763327084</v>
+      </c>
+      <c r="AD3">
+        <v>11698.2</v>
+      </c>
+      <c r="AE3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>1035.5</v>
-      </c>
-      <c r="V3">
-        <v>0.1961694388663661</v>
-      </c>
-      <c r="W3">
-        <v>0.146817472698908</v>
-      </c>
-      <c r="X3">
-        <v>0.07805697259176281</v>
-      </c>
-      <c r="Y3">
-        <v>0.06876050010714516</v>
-      </c>
-      <c r="Z3">
-        <v>0.9774189814097827</v>
-      </c>
-      <c r="AA3">
-        <v>0.1313520051837384</v>
-      </c>
-      <c r="AB3">
-        <v>0.04405213690665782</v>
-      </c>
-      <c r="AC3">
-        <v>0.08729986827708056</v>
-      </c>
-      <c r="AD3">
-        <v>7819.8</v>
-      </c>
-      <c r="AE3">
-        <v>17.80600065288226</v>
-      </c>
       <c r="AF3">
-        <v>7837.606000652882</v>
+        <v>11698.2</v>
       </c>
       <c r="AG3">
-        <v>6802.106000652882</v>
+        <v>8520.200000000001</v>
       </c>
       <c r="AH3">
-        <v>0.5975513041090351</v>
+        <v>0.6777007925105437</v>
       </c>
       <c r="AI3">
-        <v>0.5424359463822891</v>
+        <v>0.6223075736377613</v>
       </c>
       <c r="AJ3">
-        <v>0.563055338014622</v>
+        <v>0.6049731602715215</v>
       </c>
       <c r="AK3">
-        <v>0.5071125111937861</v>
+        <v>0.5454638574657013</v>
       </c>
       <c r="AL3">
-        <v>246.9</v>
+        <v>323</v>
       </c>
       <c r="AM3">
-        <v>246.9</v>
+        <v>323</v>
       </c>
       <c r="AN3">
-        <v>5.863589328294417</v>
+        <v>9.738761238761239</v>
       </c>
       <c r="AO3">
-        <v>5.286350749291211</v>
+        <v>3.635294117647059</v>
       </c>
       <c r="AP3">
-        <v>5.100482896666878</v>
+        <v>7.093073593073593</v>
       </c>
       <c r="AQ3">
-        <v>5.286350749291211</v>
+        <v>3.635294117647059</v>
       </c>
     </row>
   </sheetData>
